--- a/OldMutual/Excel Template/OverallClaimMatchStatus.xlsx
+++ b/OldMutual/Excel Template/OverallClaimMatchStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Excel Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34233F70-58EA-4AF5-9046-7202ACFA8A38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D386EB70-5C52-403F-9813-C77524E90080}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" firstSheet="5" activeTab="8" xr2:uid="{E6BB6E37-C4A8-4C8C-AFF0-FE9D60513CB3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{E6BB6E37-C4A8-4C8C-AFF0-FE9D60513CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Declines Miscellaneous" sheetId="10" r:id="rId1"/>
@@ -25,10 +25,10 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId10"/>
-    <pivotCache cacheId="39" r:id="rId11"/>
-    <pivotCache cacheId="41" r:id="rId12"/>
-    <pivotCache cacheId="43" r:id="rId13"/>
+    <pivotCache cacheId="5" r:id="rId10"/>
+    <pivotCache cacheId="7" r:id="rId11"/>
+    <pivotCache cacheId="6" r:id="rId12"/>
+    <pivotCache cacheId="4" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Guru Teja" refreshedDate="45282.000070949071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{C37ACDCE-0282-4A4A-87B0-11D6BC27972A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.000070949071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{C37ACDCE-0282-4A4A-87B0-11D6BC27972A}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="Declines-Missing Documentation."/>
   </cacheSource>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Guru Teja" refreshedDate="45282.000440856478" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="78" xr:uid="{BE169367-AC6B-4FBA-8AE7-E065F84005D8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.000440856478" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="78" xr:uid="{BE169367-AC6B-4FBA-8AE7-E065F84005D8}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="Declines Miscellaneous"/>
   </cacheSource>
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Guru Teja" refreshedDate="45282.001268171298" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{A9093DC7-5850-44E5-B65A-C638C2F74F80}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.001268171298" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{A9093DC7-5850-44E5-B65A-C638C2F74F80}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="Declines-Non Clinical"/>
   </cacheSource>
@@ -726,7 +726,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Guru Teja" refreshedDate="45282.002063194443" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="74" xr:uid="{852FBACE-1B1E-4DA3-899A-7C0E29E442BC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.002063194443" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="74" xr:uid="{852FBACE-1B1E-4DA3-899A-7C0E29E442BC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AR100000" sheet="BenefitsExhaustedProvider"/>
   </cacheSource>
@@ -8713,7 +8713,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2243C6FA-B265-4EE3-9397-00420612F3C0}" name="PivotTable2" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2243C6FA-B265-4EE3-9397-00420612F3C0}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AU1:AV2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="44">
     <pivotField showAll="0"/>
@@ -8792,7 +8792,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD393A07-DAA5-48CC-9CCE-519A854C133F}" name="PivotTable3" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD393A07-DAA5-48CC-9CCE-519A854C133F}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AU1:AV2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="44">
     <pivotField showAll="0"/>
@@ -8871,7 +8871,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5BA6752-C57A-4F7D-ABE1-61893B43A6C1}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5BA6752-C57A-4F7D-ABE1-61893B43A6C1}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AV1:AW2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="44">
     <pivotField showAll="0"/>
@@ -8950,7 +8950,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7F7DB76-BF0B-4300-AD9F-8A24694335C8}" name="PivotTable4" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7F7DB76-BF0B-4300-AD9F-8A24694335C8}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AU1:AV2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="44">
     <pivotField showAll="0"/>
@@ -9327,7 +9327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA10AE33-81C7-4325-B833-878D3DBEB64C}">
   <dimension ref="A1:AV78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9671,7 +9671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C48A89-FB27-4F70-A8F1-C4BA539C49F6}">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12035,7 +12037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93BBD55-A76D-4734-BDF7-FBDCD2B98E67}">
   <dimension ref="A1:P178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
